--- a/biology/Botanique/Faux_charbon_nu_de_l'orge/Faux_charbon_nu_de_l'orge.xlsx
+++ b/biology/Botanique/Faux_charbon_nu_de_l'orge/Faux_charbon_nu_de_l'orge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux_charbon_nu_de_l%27orge</t>
+          <t>Faux_charbon_nu_de_l'orge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le faux charbon nu de l'orge est une maladie fongique causée par un champignon basidiomycète, Ustilago nigra, qui affecte les cultures d'orge. Ce champignon est très similaire à Ustilago nuda, agent pathogène du charbon nu, dont il fut distingué pour la première fois en 1932[1].
+Le faux charbon nu de l'orge est une maladie fongique causée par un champignon basidiomycète, Ustilago nigra, qui affecte les cultures d'orge. Ce champignon est très similaire à Ustilago nuda, agent pathogène du charbon nu, dont il fut distingué pour la première fois en 1932.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux_charbon_nu_de_l%27orge</t>
+          <t>Faux_charbon_nu_de_l'orge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie n'est pas apparente avant l'épiaison, période à laquelle les épis charbonneux émergent un peu plus tôt que les épis sains.
 Dans un premier temps, chaque épi charbonneux est couvert d'une membrane papyracée, grisâtre, délicate.
-Ces membranes se brisent peu de temps après l'apparition des épis charbonneux et laissent apparaître une masse poudreuse brun foncé à noir de spores. Ces spores sont facilement dispersées, ne laissant plus que le rachis nu[2].
+Ces membranes se brisent peu de temps après l'apparition des épis charbonneux et laissent apparaître une masse poudreuse brun foncé à noir de spores. Ces spores sont facilement dispersées, ne laissant plus que le rachis nu.
 </t>
         </is>
       </c>
